--- a/Fase 2/Tabela Metrica.xlsx
+++ b/Fase 2/Tabela Metrica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Usabilidade-e-Web-Design\Fase 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE09E5-CEA5-4D68-AA1E-91607813D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664B0F2A-8B93-4840-B785-964F04436BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="33435" yWindow="165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -39,18 +39,9 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>Plano Nutricional Semanal</t>
-  </si>
-  <si>
-    <t>Plano de Refeições</t>
-  </si>
-  <si>
     <t>2,3</t>
   </si>
   <si>
-    <t xml:space="preserve">Informação simples e facil </t>
-  </si>
-  <si>
     <t>1,4</t>
   </si>
   <si>
@@ -60,13 +51,22 @@
     <t>1,2,3,4</t>
   </si>
   <si>
-    <t>Aviso de seguranca por refeição</t>
-  </si>
-  <si>
     <t>2,4</t>
   </si>
   <si>
     <t>Valores das Necessidades</t>
+  </si>
+  <si>
+    <t>App para controlo alimentar</t>
+  </si>
+  <si>
+    <t>Plano alimentar impresso em A3 focado em utilizadores mais idosos</t>
+  </si>
+  <si>
+    <t>Jogo de alimentação saudavel focado em utilizadores mais novos</t>
+  </si>
+  <si>
+    <t>Notificação para alimentos for a do prazo de validade</t>
   </si>
 </sst>
 </file>
@@ -258,22 +258,6 @@
   <dxfs count="8">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -327,26 +311,42 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -363,12 +363,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADF3CBF0-86DC-4B61-A0BB-CA31F345503D}" name="Tabela1" displayName="Tabela1" ref="A2:C7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A2:C7" xr:uid="{ADF3CBF0-86DC-4B61-A0BB-CA31F345503D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADF3CBF0-86DC-4B61-A0BB-CA31F345503D}" name="Tabela1" displayName="Tabela1" ref="B3:D8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="B3:D8" xr:uid="{ADF3CBF0-86DC-4B61-A0BB-CA31F345503D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{13ED04C5-9FB0-4DA5-B0D2-913EAFB3BC4E}" name="#" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B2D91040-853F-4B87-A81A-26509D3249A2}" name="# Necessidades" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{AAC45870-4287-49C3-964F-282DF440EA70}" name="Métrica" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{13ED04C5-9FB0-4DA5-B0D2-913EAFB3BC4E}" name="#" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B2D91040-853F-4B87-A81A-26509D3249A2}" name="# Necessidades" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{AAC45870-4287-49C3-964F-282DF440EA70}" name="Métrica" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -637,95 +637,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="2" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
